--- a/data/output/bases-separadas/-12.xlsx
+++ b/data/output/bases-separadas/-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1127366000199</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0394429012460</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>10381841000140</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02784615000181</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>14338663000125</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06245436000550</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5657147000172</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03692036000171</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>10379615000124</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0389481003780</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>63666028000182</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05461367000126</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>19807896000143</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09367075000180</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>69205789000113</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07451124000132</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>6537599000183</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02906798000160</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>13099465000193</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07137068000166</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2721652000140</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07251625000175</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>9003066000100</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05037729000156</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12278849000100</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03642414000102</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>28332400000113</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08768230000107</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>19232334000119</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0463438000106</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>10739839000108</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09006278000221</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>94088242000122</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07925799000176</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>3951921000128</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>09265212000507</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>64059041000136</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07655505000133</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>14820404000136</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03283334000108</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20843337000178</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08611174000100</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>34120212000124</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01970473000265</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>10627870000149</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0706315000159</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>965241000175</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08793343000162</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>667476000180</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08906799000191</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>8664829000109</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05489028000158</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>2130043000117</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07630087000120</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>20211413000122</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0844195000156</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>46207171000197</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04939426000166</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>16617120000172</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02138571000112</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>3526090000228</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08898737000185</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>8306495000193</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04445030000162</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>15023114000124</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09468367000109</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1818249000333</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08166432000189</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>17355219000106</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08482582000100</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>5480599000121</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05343207000263</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>68322411000137</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02432726000129</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>3359195000159</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01633687000246</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>52548435004751</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04400335000158</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>18719520000114</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08869838000128</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>3801241000128</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04718601000195</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>22863129000166</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>06261224000133</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>19723363000183</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02319843000180</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>2367108000142</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09204453000104</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>3095809000132</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07595286000144</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>26269686000104</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09148250000148</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>34203752000171</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0563474000141</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>59708503000169</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01007714000194</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>28420831000131</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03805563000145</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>5334536000167</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05924325000184</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>12780676000124</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>06353864000173</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>5924054000167</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05963456000170</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>21372982000112</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02052396000146</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>88379771000182</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08251429000163</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>10460783000140</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>07683593000187</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>2831488000124</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04246702000100</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>8385196000191</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03951756000104</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>14830472000186</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05233521001427</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>24635166000142</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08113381000127</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>13562299000110</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>07071075000102</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>16812278000101</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>07663989000162</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>9508579000172</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0889654000118</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>4749583000109</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>07940678000101</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>10215988000240</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>07963003000684</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>22825637000150</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05197048000155</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>5669138000100</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>07641481000163</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>18366932000118</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>09265212000680</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>9594827000145</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>06072225000130</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>21474622000121</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>07927998000113</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>11644975000179</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01427687000109</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>24706550000199</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>03338199000150</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>73530396000152</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01251493000103</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>20103987000187</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04937083000109</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>28515824000113</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>03456075000170</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>21957564000197</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04878354000194</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>4949633000100</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>07525475000140</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>71246847000107</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>09464899000178</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>8748555000128</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04479387000161</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>25997278000106</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09446484000171</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>52821139000108</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>05551222000116</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>5386044000387</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01981426000136</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>3845152000183</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>09580023001320</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>8299803000109</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>09469593000104</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>9140093000124</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>09399572000160</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>9601070000170</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>06958977000100</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>97510002000162</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>028004000188</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>14998226000138</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>02199283000178</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>6315338015140</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>08428765000139</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>27531596000102</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>03475164000163</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>30105413000100</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>03901750000122</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>27595780000469</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01722061000125</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>15169111000101</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0549922000152</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>7386677000159</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>08237313000170</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>5637287000189</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>03712932000155</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>12540755000168</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>09394061000155</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>5057493000110</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>08583776000193</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>14210345000184</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>02158025000143</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>20546846000139</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>06986887000115</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2491558001114</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>07929258000116</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>3634791000108</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>07749973000177</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
